--- a/report/reliability/comb/Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7912221671653749</v>
+        <v>0.7538920072414713</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.806127622227218</v>
+        <v>0.7811319031297941</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8961002764975846</v>
+        <v>0.8836149524885029</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2573353162078422</v>
+        <v>0.21540045398519042</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.158032368963867</v>
+        <v>3.5689619195301194</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.0062132573419621485</v>
+        <v>0.006839428834976511</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5043406102387338</v>
+        <v>1.8957160126190407</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7593235505901753</v>
+        <v>0.6303410439501753</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1938767608455801</v>
+        <v>0.1416938238979034</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.76737541465188</v>
+        <v>0.7557306277959787</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7787968695179839</v>
+        <v>0.778874280733391</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8729344866061033</v>
+        <v>0.8825893909049235</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2424624157147148</v>
+        <v>0.2269194028514798</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.520731681423017</v>
+        <v>3.522314289430579</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0069333327901498435</v>
+        <v>0.006950103980141585</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.035927659440466796</v>
+        <v>0.05163844872237433</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.18880032751734288</v>
+        <v>0.15865251123311913</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7713699590294202</v>
+        <v>0.7302790289623368</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7846272985894598</v>
+        <v>0.755887366448456</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8767739240109449</v>
+        <v>0.8657891610992536</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2487936638396808</v>
+        <v>0.20511217123046685</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.6431139761478635</v>
+        <v>3.096469672426241</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.006817887179803691</v>
+        <v>0.007460399111982658</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03607744757464636</v>
+        <v>0.0527377144703747</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.19337637471964111</v>
+        <v>0.12786673866713438</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7685623763682018</v>
+        <v>0.7365369599313866</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7795232505823504</v>
+        <v>0.761853382249004</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8739094842864362</v>
+        <v>0.8681646176996409</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24323862869891524</v>
+        <v>0.21047924884299077</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.535625650511097</v>
+        <v>3.1990938584128514</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.006900527107943334</v>
+        <v>0.007282527217531227</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03644807396752017</v>
+        <v>0.0521560063687397</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.19197264355629395</v>
+        <v>0.1326485990638046</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7696158400411516</v>
+        <v>0.7417068935856905</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7829852734104509</v>
+        <v>0.7598848696872467</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8763418558939282</v>
+        <v>0.8634197127873673</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.24698703490333784</v>
+        <v>0.20868697294674576</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.6079822126143086</v>
+        <v>3.1646688348938516</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.006865652662727929</v>
+        <v>0.007286671287814017</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03646225349161736</v>
+        <v>0.03973430381700028</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.19378303825604276</v>
+        <v>0.1416938238979034</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7766478970077275</v>
+        <v>0.7227309745641033</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7972241007328348</v>
+        <v>0.7567152041232942</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8601264564537117</v>
+        <v>0.861449208847878</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.263305006330565</v>
+        <v>0.20584545081169783</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.9315525346651783</v>
+        <v>3.110408940256133</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.0066312365196318016</v>
+        <v>0.007672032485867698</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03279808910530092</v>
+        <v>0.039990433401570435</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.19860447272994913</v>
+        <v>0.13787298997610323</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7791673836388577</v>
+        <v>0.7256409658696584</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7978038642213156</v>
+        <v>0.7574267231182118</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8605777788524527</v>
+        <v>0.8617770182766543</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2640020072280449</v>
+        <v>0.20647860720512617</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.9456929339864235</v>
+        <v>3.1224656435973537</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.00655296479825571</v>
+        <v>0.007582601332372496</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03263660796085857</v>
+        <v>0.03987472883925701</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20299005401219286</v>
+        <v>0.13787298997610323</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7880334679680696</v>
+        <v>0.7551452859128519</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8065100771246765</v>
+        <v>0.7849337041023136</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8872329950680036</v>
+        <v>0.8877725625175064</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.27479992131358016</v>
+        <v>0.2332135607656208</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.168227808144592</v>
+        <v>3.649729032743143</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.006330272172231543</v>
+        <v>0.0069562445380335885</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03765771873706033</v>
+        <v>0.052377208440959784</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20683047669149524</v>
+        <v>0.15865251123311913</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.79497747092935</v>
+        <v>0.7465111027594323</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8064704561545601</v>
+        <v>0.7753147791996138</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8873195260803708</v>
+        <v>0.8716691451366363</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2747493303703742</v>
+        <v>0.22333470259217889</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.167169725768786</v>
+        <v>3.450671016267758</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.006084461203327137</v>
+        <v>0.006955494013968593</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.0376342818604494</v>
+        <v>0.05174760215816458</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.20683047669149524</v>
+        <v>0.15865251123311913</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7813222414025308</v>
+        <v>0.7558080507623486</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7979607533281233</v>
+        <v>0.7766669131577861</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8974987152591177</v>
+        <v>0.8771397082856616</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2641910818281823</v>
+        <v>0.22468684350266555</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.9495334024089734</v>
+        <v>3.4776168822065596</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.006582831360670465</v>
+        <v>0.006621193419858564</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.043066365755631386</v>
+        <v>0.052678991222233754</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.19337637471964111</v>
+        <v>0.15865251123311913</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7773954355497725</v>
+        <v>0.7370477024331658</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7941650094406608</v>
+        <v>0.7701359833888156</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8951674875540467</v>
+        <v>0.883306704275107</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.25967107556536234</v>
+        <v>0.21826132080548757</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.8582604798269924</v>
+        <v>3.3503981821195734</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.0066715778575081874</v>
+        <v>0.007336992965831371</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04303387768152451</v>
+        <v>0.05727110669732592</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19337637471964111</v>
+        <v>0.1326485990638046</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7700252078964758</v>
+        <v>0.7358824492410307</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7870114958776777</v>
+        <v>0.7693472228196182</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8718176684298016</v>
+        <v>0.882278763004535</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25145060777379136</v>
+        <v>0.21750295529600772</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.695089080609184</v>
+        <v>3.3355211770025694</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.006868207689249571</v>
+        <v>0.007326343194222591</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03833833861124994</v>
+        <v>0.057089186448285145</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.18880032751734288</v>
+        <v>0.1383603302419519</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7726144502204484</v>
+        <v>0.7244783534935388</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7895926227338661</v>
+        <v>0.7602436474754332</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8737371299345074</v>
+        <v>0.8583791194739965</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2543730209275577</v>
+        <v>0.20901203991480694</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.752685067383112</v>
+        <v>3.1709009562010837</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.006794838301208986</v>
+        <v>0.007635573993196802</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.038311238834048904</v>
+        <v>0.05276516910434412</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.19337637471964111</v>
+        <v>0.1300988551315817</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.727154227052404</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7620643749548066</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8599188588787274</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2106726250422011</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.2028174629589854</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.007559738367911722</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05296210889326998</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.13152977411241162</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>2611.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6397415979883079</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6856497044896369</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.671169078309058</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5601751181759979</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.485254691689008</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0933764894815363</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5916922376474762</v>
+        <v>0.2893713526227175</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6342899448217527</v>
+        <v>0.41375717396689576</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6121975989293316</v>
+        <v>0.3480155725527719</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.49506285110161996</v>
+        <v>0.27003594913753004</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.993106089620835</v>
+        <v>0.9697201993100805</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2059679042406923</v>
+        <v>0.17138901118201244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6322781197058054</v>
+        <v>0.568785353876757</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6793529820215312</v>
+        <v>0.6245908593475554</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6627372137469696</v>
+        <v>0.6004070353769839</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5554053041808994</v>
+        <v>0.46821689988194054</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5591727307545002</v>
+        <v>3.487926408585665</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.046359830033361</v>
+        <v>1.0895258582563432</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6083105659509496</v>
+        <v>0.5167246377054038</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6489455113306262</v>
+        <v>0.5727016157957924</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6273947450817883</v>
+        <v>0.5440740655704073</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5119165007586253</v>
+        <v>0.3968131776299448</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.9770202987361163</v>
+        <v>3.996167113836719</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2331036160600186</v>
+        <v>1.2013479250795467</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5785509231166287</v>
+        <v>0.6088320457456263</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5165723877019749</v>
+        <v>0.5900294517628373</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5374567763416582</v>
+        <v>0.6191311398773244</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.43862145251399404</v>
+        <v>0.5763917098744926</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8046725392569897</v>
+        <v>0.20505940973553086</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.6442612375317525</v>
+        <v>0.40382242640458876</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5732964201821314</v>
+        <v>0.6442213956738025</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5109182421249427</v>
+        <v>0.6175014662869366</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5314332762023802</v>
+        <v>0.6501590858071454</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4239768251649273</v>
+        <v>0.5016337692214925</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8468019915741095</v>
+        <v>0.8052893829053277</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7288093921590917</v>
+        <v>1.6447405261025072</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4281893512317347</v>
+        <v>0.6380996355106515</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4233244120615329</v>
+        <v>0.6113800704963684</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.36320282217242095</v>
+        <v>0.6437206979058702</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3042337791816062</v>
+        <v>0.48504607919355675</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6399846801991576</v>
+        <v>0.8474511307014182</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2717962678399597</v>
+        <v>1.7293130429356829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4415020028570363</v>
+        <v>0.2665672608332823</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4237348111855512</v>
+        <v>0.35290485981403</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3633488103534006</v>
+        <v>0.26566344835409306</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.2793066117964912</v>
+        <v>0.2390524918314376</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.739946380697051</v>
+        <v>0.9386738213875048</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6447319352667538</v>
+        <v>0.2399736464809592</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5291939274634435</v>
+        <v>0.44150781743686734</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5093844488142579</v>
+        <v>0.4484142812874405</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4194215846691099</v>
+        <v>0.4040529762138562</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.39082800988025307</v>
+        <v>0.3041787730660813</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.45461509000383</v>
+        <v>2.6420084323495594</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5391906974538687</v>
+        <v>1.2701800322576506</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5398947449253938</v>
+        <v>0.45173765467425897</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5460512214274403</v>
+        <v>0.4353416980147812</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.46318251614356737</v>
+        <v>0.3792804623031308</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.42239465051290453</v>
+        <v>0.2709892833196882</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3806970509383376</v>
+        <v>2.742046761211192</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3452893735580305</v>
+        <v>1.6436106854227566</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6046814242411344</v>
+        <v>0.5498293528545183</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6127365324118267</v>
+        <v>0.49746405514321795</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5966069113330502</v>
+        <v>0.41118128481248994</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4994754786832732</v>
+        <v>0.3976394768100377</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1891995404059745</v>
+        <v>1.455730164814105</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3256293852600443</v>
+        <v>1.5392533687785204</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
+        <v>28</v>
+      </c>
+      <c r="B38" t="n" s="84">
+        <v>2609.0</v>
+      </c>
+      <c r="C38" t="n" s="85">
+        <v>0.5340324398466635</v>
+      </c>
+      <c r="D38" t="n" s="86">
+        <v>0.5047959805342043</v>
+      </c>
+      <c r="E38" t="n" s="87">
+        <v>0.4227427459217145</v>
+      </c>
+      <c r="F38" t="n" s="88">
+        <v>0.40079539441860296</v>
+      </c>
+      <c r="G38" t="n" s="89">
+        <v>2.3817554618627828</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3452614462957848</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
         <v>29</v>
       </c>
-      <c r="B38" t="n" s="84">
-        <v>2611.0</v>
-      </c>
-      <c r="C38" t="n" s="85">
-        <v>0.57981812054282</v>
-      </c>
-      <c r="D38" t="n" s="86">
-        <v>0.5890296053944137</v>
-      </c>
-      <c r="E38" t="n" s="87">
-        <v>0.5699614777249682</v>
-      </c>
-      <c r="F38" t="n" s="88">
-        <v>0.4763039921272002</v>
-      </c>
-      <c r="G38" t="n" s="89">
-        <v>1.9816162389888932</v>
-      </c>
-      <c r="H38" t="n" s="90">
-        <v>1.2617444561377837</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="n" s="84">
+        <v>2609.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6142619639308468</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5868866838928514</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5735741241338012</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4974332387226745</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.190111153698735</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3257283083105937</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>2609.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.593632868048265</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5708320425527069</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.555055880535354</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.47942933166406015</v>
+      </c>
+      <c r="G40" t="n" s="89">
+        <v>1.9823687236489076</v>
+      </c>
+      <c r="H40" t="n" s="90">
+        <v>1.2619351924491449</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.031022596706242817</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.05476828801225584</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0076599004212945234</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3255457679050172</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.46648793565683644</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.11451551129835312</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.031022596706242817</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.005361930294906166</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04442742244350823</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2546916890080429</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1876675603217158</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4768288012255841</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.017617770968977403</v>
+        <v>0.03027980068991951</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.05476828801225584</v>
+        <v>0.9697201993100805</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.01876675603217158</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.30371505170432783</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.469934890846419</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.13519724243584832</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.017617770968977403</v>
+        <v>0.03027980068991951</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.018383761011106857</v>
+        <v>0.05481027213491759</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.059364228265032556</v>
+        <v>0.007665772326561901</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3071620068939104</v>
+        <v>0.32579532387888077</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0689391037916507</v>
+        <v>0.4668455346876198</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5285331290693221</v>
+        <v>0.11460329628210042</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7950976637303715</v>
+        <v>0.03027980068991951</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.008808885484488702</v>
+        <v>0.005366040628593331</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0019149751053236309</v>
+        <v>0.04446147949405903</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.04442742244350823</v>
+        <v>0.25488692985818323</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09000382995021065</v>
+        <v>0.1878114220007666</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.05974722328609728</v>
+        <v>0.47719432732847833</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.7950976637303715</v>
+        <v>0.7949405902644692</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0038299502106472617</v>
+        <v>0.20505940973553086</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.005744925315970892</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.050555342780543855</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.04404442742244351</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.10072769054002298</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.062045193412485634</v>
+        <v>0.7949405902644692</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1991574109536576</v>
+        <v>0.008815638175546186</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.05668326311757947</v>
+        <v>0.0019164430816404753</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.42780543852929914</v>
+        <v>0.04446147949405903</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.22749904251244735</v>
+        <v>0.09007282483710234</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02680965147453083</v>
+        <v>0.05979302414718283</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.062045193412485634</v>
+        <v>0.7949405902644692</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.23630792799693603</v>
+        <v>0.0038328861632809506</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.2037533512064343</v>
+        <v>0.005749329244921426</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.12638835695135964</v>
+        <v>0.050594097355308544</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.1405591727307545</v>
+        <v>0.04407819087773093</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.23094599770202986</v>
+        <v>0.10080490609428899</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4496361547299885</v>
+        <v>0.06132617861249521</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1275373420145538</v>
+        <v>0.9386738213875048</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.07047108387590961</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.22328609728073534</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.12906932209881272</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1685178092684795</v>
+        <v>0.06132617861249521</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.10608962083492915</v>
+        <v>0.19931008049060944</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07659900421294523</v>
+        <v>0.05672671521655807</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.47376484105706623</v>
+        <v>0.4281333844384822</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.17502872462657987</v>
+        <v>0.22767343809888846</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.026830203142966653</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.1815396399846802</v>
+        <v>0.06132617861249521</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.0689391037916507</v>
+        <v>0.23648907627443466</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3163538873994638</v>
+        <v>0.20390954388654656</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24511681348142475</v>
+        <v>0.12648524338827136</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.18805055534278053</v>
+        <v>0.1406669221924109</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.23112303564584133</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2037533512064343</v>
+        <v>0.4492142583365274</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.06625813864419762</v>
+        <v>0.12763510923725566</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.40214477211796246</v>
+        <v>0.07052510540436949</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.20030639601685177</v>
+        <v>0.22345726331927943</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.1275373420145538</v>
+        <v>0.12916826370256804</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.16864699118436183</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.10540436949022614</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07665772326561901</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.47412801839785357</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.17516289766193943</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.18167880413951706</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.06822537370640092</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.31659639708700654</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24530471444998084</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.18819471061709467</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.20390954388654656</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.06554235339210425</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4024530471444998</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.20045994633959371</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.12763510923725566</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8655678795156968</v>
+        <v>0.8731718122851798</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.867691049345549</v>
+        <v>0.9888496746896623</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.871843562006618</v>
+        <v>0.9835779805915958</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6211427950762248</v>
+        <v>0.9672787296861216</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.558067651913303</v>
+        <v>88.68348206602421</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.00436955226321106</v>
+        <v>5.843313454960502E-4</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7536384527001148</v>
+        <v>0.6192666411140922</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9685110100113269</v>
+        <v>1.2481111115511456</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6323587015081338</v>
+        <v>0.965054360669515</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8233324876373486</v>
+        <v>0.9854742804437038</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8255339955437908</v>
+        <v>0.9861024355326433</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7770174484193866</v>
+        <v>0.9725858608316952</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6119908120568515</v>
+        <v>0.9725858608316951</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.7317756723832085</v>
+        <v>70.95505387644327</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.00596973288433296</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.011803615718759998</v>
-      </c>
+        <v>5.559738883170578E-4</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6161837494857594</v>
+        <v>0.9725858608316952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8316421899709475</v>
+        <v>0.5988561094439633</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8358243923414885</v>
+        <v>0.982216451600566</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7886007982979257</v>
+        <v>0.9650543606695151</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6292194283437395</v>
+        <v>0.965054360669515</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.091038822770922</v>
+        <v>55.23174731719074</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.005769550093810575</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.010064109991447344</v>
-      </c>
+        <v>0.0020163575155721725</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6485336535305083</v>
+        <v>0.965054360669515</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8280938175425357</v>
+        <v>0.6173970272669376</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8300649295895874</v>
+        <v>0.9817716597354722</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7799688002398175</v>
+        <v>0.964195967557155</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6195114767473485</v>
+        <v>0.964195967557155</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.884600498207259</v>
+        <v>53.859629866905514</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.005878071455764801</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010114344857442037</v>
-      </c>
+        <v>0.0020563390942757134</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6161837494857594</v>
+        <v>0.964195967557155</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8310693631618162</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8326508357327452</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7888719692271189</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6238494631569598</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.975530289491086</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.005765794513248027</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012600310481908714</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6485336535305083</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>2609.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9770913472202476</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9872441094614175</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9762330657127921</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.971311598020904</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.20505940973553086</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.40382242640458876</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8477805570373973</v>
+        <v>0.9924356523952423</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8541960466406876</v>
+        <v>0.989782448059137</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8031801698178263</v>
+        <v>0.9828767116691164</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7294440433368071</v>
+        <v>0.9762474559812649</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.485254691689008</v>
+        <v>0.8052893829053277</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0933764894815363</v>
+        <v>1.6447405261025072</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8465138467669473</v>
+        <v>0.9931474269349327</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8389239559380552</v>
+        <v>0.9900717519590507</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7790336228865398</v>
+        <v>0.9835248073835983</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7089937933678563</v>
+        <v>0.9766512595376882</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.993106089620835</v>
+        <v>0.8474511307014182</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2059679042406923</v>
+        <v>1.7293130429356829</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>2611.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8378773360348509</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8475294478039156</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7940422947357201</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7208876256335551</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5591727307545002</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.046359830033361</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>2611.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8511133861369521</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8436840941892559</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7837829015147186</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.712323166979196</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.9770202987361163</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2331036160600186</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7949405902644692</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.20505940973553086</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7949405902644692</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.008815638175546186</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0019164430816404753</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.04446147949405903</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09007282483710234</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.05979302414718283</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.031022596706242817</v>
+        <v>0.7949405902644692</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.05476828801225584</v>
+        <v>0.0038328861632809506</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0076599004212945234</v>
+        <v>0.005749329244921426</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3255457679050172</v>
+        <v>0.050594097355308544</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.46648793565683644</v>
+        <v>0.04407819087773093</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.11451551129835312</v>
+        <v>0.10080490609428899</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.031022596706242817</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.005361930294906166</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04442742244350823</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2546916890080429</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1876675603217158</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4768288012255841</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.017617770968977403</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.05476828801225584</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.01876675603217158</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.30371505170432783</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.469934890846419</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.13519724243584832</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.017617770968977403</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.018383761011106857</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.059364228265032556</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3071620068939104</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0689391037916507</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5285331290693221</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7866921075312443</v>
+        <v>0.6620315477856298</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8023534376875383</v>
+        <v>0.7805469375667089</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6699417532150082</v>
+        <v>0.7231550654695</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6699417532150083</v>
+        <v>0.5424585552021904</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.059536519633913</v>
+        <v>3.556783072024697</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.007879773427619115</v>
+        <v>0.006010033575145935</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.689965530448104</v>
+        <v>2.1075763383160853</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3346655839698636</v>
+        <v>0.9325465518107041</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6699417532150083</v>
+        <v>0.5317625679159931</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6699417532150083</v>
+        <v>0.7860266363925505</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6699417532150083</v>
+        <v>0.8017548229926008</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.44882195270079883</v>
+        <v>0.66910749016739</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6699417532150083</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6699417532150083</v>
-      </c>
+        <v>0.6691074901673901</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.044258907558075</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.007906236666842254</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6699417532150083</v>
+        <v>0.66910749016739</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.44882195270079883</v>
+        <v>0.21737906338269752</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6699417532150083</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.44882195270079883</v>
-      </c>
+        <v>0.5979725635480972</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4265056075231881</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.42650560752318833</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.4873924248193358</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.00798422907235826</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6699417532150083</v>
+        <v>0.4265056075231883</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.32496614076631114</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6943146138366225</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5317625679159931</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.531762567915993</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.2713372809570203</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.008324820533882128</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5317625679159931</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>2611.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.889238058068814</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9137674083745294</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7479183464509368</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6699417532150085</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.6399846801991576</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2717962678399597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>2609.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.5777788475828843</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.7830096996450849</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.5877876780215302</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.516258148809311</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.9386738213875048</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2399736464809592</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>2611.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.935350917362134</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9137674083745294</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7479183464509368</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6699417532150083</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.739946380697051</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.6447319352667538</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="n" s="314">
+        <v>2609.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8927315747861369</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8800135878995454</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8100440919628521</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6976018649142152</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6420084323495594</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2701800322576506</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>2609.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9278706640110089</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8379267981654269</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7289392822022142</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6741566949610187</v>
+      </c>
+      <c r="G20" t="n" s="319">
+        <v>2.742046761211192</v>
+      </c>
+      <c r="H20" t="n" s="320">
+        <v>1.6436106854227566</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.062045193412485634</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.1991574109536576</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.05668326311757947</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.42780543852929914</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.22749904251244735</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.02680965147453083</v>
-      </c>
-      <c r="H23" t="n" s="345">
+      <c r="B25" t="n" s="339">
+        <v>0.06132617861249521</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.9386738213875048</v>
+      </c>
+      <c r="D25" t="n" s="341">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.062045193412485634</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.23630792799693603</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.2037533512064343</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.12638835695135964</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.1405591727307545</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.23094599770202986</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B26" t="n" s="339">
+        <v>0.06132617861249521</v>
+      </c>
+      <c r="C26" t="n" s="340">
+        <v>0.19931008049060944</v>
+      </c>
+      <c r="D26" t="n" s="341">
+        <v>0.05672671521655807</v>
+      </c>
+      <c r="E26" t="n" s="342">
+        <v>0.4281333844384822</v>
+      </c>
+      <c r="F26" t="n" s="343">
+        <v>0.22767343809888846</v>
+      </c>
+      <c r="G26" t="n" s="344">
+        <v>0.026830203142966653</v>
+      </c>
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
+        <v>0.06132617861249521</v>
+      </c>
+      <c r="C27" t="n" s="340">
+        <v>0.23648907627443466</v>
+      </c>
+      <c r="D27" t="n" s="341">
+        <v>0.20390954388654656</v>
+      </c>
+      <c r="E27" t="n" s="342">
+        <v>0.12648524338827136</v>
+      </c>
+      <c r="F27" t="n" s="343">
+        <v>0.1406669221924109</v>
+      </c>
+      <c r="G27" t="n" s="344">
+        <v>0.23112303564584133</v>
+      </c>
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8955458589240934</v>
+        <v>0.7015263027480967</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8961488927076784</v>
+        <v>0.8329682147746951</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8118385593740769</v>
+        <v>0.7780120415418198</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8118385593740771</v>
+        <v>0.6243841996924789</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.629170319630628</v>
+        <v>4.986884464242092</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.004073827299211661</v>
+        <v>0.004711068418411257</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.085407889697434</v>
+        <v>2.817937907244155</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2313674983276637</v>
+        <v>0.7450897131911959</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.811838559374077</v>
+        <v>0.5879107074533177</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.811838559374077</v>
+        <v>0.8345106443139407</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.811838559374077</v>
+        <v>0.836828915153043</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6590818464865764</v>
+        <v>0.7194375153016703</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.811838559374077</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.811838559374077</v>
-      </c>
+        <v>0.7194375153016703</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.128536811150885</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.006416449663583798</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.811838559374077</v>
+        <v>0.7194375153016704</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6590818464865764</v>
+        <v>0.28237902098453516</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.811838559374077</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6590818464865764</v>
-      </c>
+        <v>0.7404833340990635</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5879107074533176</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5879107074533176</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.853317075141999</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.006443773784405375</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.811838559374077</v>
+        <v>0.5879107074533177</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.2960021591811419</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7227012325145417</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5658043763224485</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5658043763224483</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.6062186971402257</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.007085796458873044</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5658043763224483</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>2611.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9542083050026435</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9517979195643571</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8575897637742226</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8118385593740771</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.1891995404059745</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3256293852600443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9493272762625417</v>
+        <v>0.6684353091887824</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9517979195643571</v>
+        <v>0.8291922941455645</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8575897637742226</v>
+        <v>0.6729133180321963</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8118385593740771</v>
+        <v>0.622604089524958</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9816162389888932</v>
+        <v>0.9697201993100805</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2617444561377837</v>
+        <v>0.17138901118201244</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>2609.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9174704024500467</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8798308472034829</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8005272394804932</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7340892564985537</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.487926408585665</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0895258582563432</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>2609.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9332008836359098</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8883419077256628</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8175650470375623</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7403285715266045</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.996167113836719</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2013479250795467</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.1815396399846802</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.0689391037916507</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3163538873994638</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24511681348142475</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.18805055534278053</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.03027980068991951</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9697201993100805</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2037533512064343</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06625813864419762</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.40214477211796246</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.20030639601685177</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.1275373420145538</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.03027980068991951</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.05481027213491759</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.007665772326561901</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.32579532387888077</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4668455346876198</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.11460329628210042</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.03027980068991951</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.005366040628593331</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.04446147949405903</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.25488692985818323</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.1878114220007666</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.47719432732847833</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9854768664867359</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9861050257187445</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9725909001746348</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9725909001746349</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>70.96846714203826</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>5.556596487474653E-4</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.8257372654155496</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6749461540797947</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9725909001746349</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5921536793107491</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5959312560676764</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4244316801744862</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.42443168017448607</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.4748264126251924</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.015794545271989563</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.9187428133384439</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2182743056907774</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.424431680174486</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.972590900174635</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.972590900174635</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9459330591025064</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.972590900174635</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.972590900174635</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.972590900174635</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.42443168017448607</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.42443168017448607</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.18014225113573745</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.42443168017448607</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.42443168017448607</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.42443168017448607</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9459330591025064</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.972590900174635</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9459330591025064</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.972590900174635</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.18014225113573745</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.42443168017448607</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.18014225113573745</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.42443168017448607</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
-        <v>2611.0</v>
-      </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9927738609332305</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9931240859466239</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.979419205263288</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9725909001746349</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.8046725392569897</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.6442612375317525</v>
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
+        <v>2609.0</v>
+      </c>
+      <c r="C17" t="n" s="545">
+        <v>0.8660713497964132</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8439288122153688</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5498062983043316</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.42443168017448607</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.455730164814105</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5392533687785204</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
-        <v>2611.0</v>
-      </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9934656410255596</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.993124085946624</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.979419205263288</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.972590900174635</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8468019915741095</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7288093921590917</v>
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
+        <v>2609.0</v>
+      </c>
+      <c r="C18" t="n" s="545">
+        <v>0.8202460359235251</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8439288122153688</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5498062983043317</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.424431680174486</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3817554618627828</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3452614462957848</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7950976637303715</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.008808885484488702</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0019149751053236309</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.04442742244350823</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09000382995021065</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.05974722328609728</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4492142583365274</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.12763510923725566</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.07052510540436949</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.22345726331927943</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.12916826370256804</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7950976637303715</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0038299502106472617</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.005744925315970892</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.050555342780543855</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.04404442742244351</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.10072769054002298</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.16864699118436183</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.10540436949022614</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.07665772326561901</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.47412801839785357</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.17516289766193943</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5925763750800934</v>
+        <v>0.8954890350863378</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5963520616986551</v>
+        <v>0.8960901948708697</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.42485871665251274</v>
+        <v>0.8117422190720092</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720094</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.4774064354403957</v>
+        <v>8.623730876574012</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.0157722132809679</v>
+        <v>0.004077657054095244</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.9176560704710839</v>
+        <v>2.0862399386738213</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2184400640627078</v>
+        <v>1.231472510926693</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720093</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720094</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720094</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.1805049291156201</v>
+        <v>0.6589254302239499</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720094</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720094</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.1805049291156201</v>
+        <v>0.6589254302239499</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720094</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.1805049291156201</v>
+        <v>0.6589254302239499</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.42485871665251285</v>
+        <v>0.8117422190720094</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8661684216095202</v>
+        <v>0.9541806093527254</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8440553052533089</v>
+        <v>0.9517726144074563</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5501652687002938</v>
+        <v>0.8575160783612046</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4248587166525128</v>
+        <v>0.8117422190720093</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.45461509000383</v>
+        <v>2.190111153698735</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5391906974538687</v>
+        <v>1.3257283083105937</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8204047194966809</v>
+        <v>0.9493045157639529</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8440553052533089</v>
+        <v>0.9517726144074564</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5501652687002938</v>
+        <v>0.8575160783612046</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4248587166525128</v>
+        <v>0.8117422190720094</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3806970509383376</v>
+        <v>1.9823687236489076</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3452893735580305</v>
+        <v>1.2619351924491449</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4496361547299885</v>
+        <v>0.18167880413951706</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.1275373420145538</v>
+        <v>0.06822537370640092</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.07047108387590961</v>
+        <v>0.31659639708700654</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.22328609728073534</v>
+        <v>0.24530471444998084</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.12906932209881272</v>
+        <v>0.18819471061709467</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.1685178092684795</v>
+        <v>0.20390954388654656</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.10608962083492915</v>
+        <v>0.06554235339210425</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.07659900421294523</v>
+        <v>0.4024530471444998</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.47376484105706623</v>
+        <v>0.20045994633959371</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.17502872462657987</v>
+        <v>0.12763510923725566</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8045211928652192</v>
+        <v>0.7719202244680978</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8173376585942335</v>
+        <v>0.8022361393429628</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9019902033403957</v>
+        <v>0.8963055795746359</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3091337716914424</v>
+        <v>0.2885871532601682</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.4745821842861275</v>
+        <v>4.056535590869171</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.005923364111929384</v>
+        <v>0.006398048904317182</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4672156261968596</v>
+        <v>1.8321579149099272</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8185010263377082</v>
+        <v>0.7250375362979833</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.23611253279927005</v>
+        <v>0.20260319135282231</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7796781697030756</v>
+        <v>0.7585530038069987</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7884464292219961</v>
+        <v>0.776724004485624</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8763505666185633</v>
+        <v>0.8725086863486452</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.29283838357418146</v>
+        <v>0.2787745977649365</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.726935103588308</v>
+        <v>3.478761801940385</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.006677085905847615</v>
+        <v>0.006972098415545956</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03846204081827107</v>
+        <v>0.043652321622847545</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.22979860500912075</v>
+        <v>0.22484620719066317</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7842605318640985</v>
+        <v>0.7340110494432173</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7947625176901848</v>
+        <v>0.7734263883315264</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8806665718921173</v>
+        <v>0.8703587109097304</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3008299179621028</v>
+        <v>0.27498735779011313</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.8724043422558405</v>
+        <v>3.413576641322281</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.00653697173301066</v>
+        <v>0.007403349526298613</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03828271029258992</v>
+        <v>0.04417057289430858</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.23359684160273803</v>
+        <v>0.2175756298704978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.782773452266061</v>
+        <v>0.7376334299453744</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7915062748468069</v>
+        <v>0.7740609435463994</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8782520921931625</v>
+        <v>0.8706250545048416</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2966721017326571</v>
+        <v>0.2757106003563122</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.7963074153202414</v>
+        <v>3.4259722763132046</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.006596443530120087</v>
+        <v>0.007287249620584115</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.038428096279144584</v>
+        <v>0.043999593791508404</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.230812734910545</v>
+        <v>0.22082044754563973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7847693312479793</v>
+        <v>0.7771275950698039</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7953021146569668</v>
+        <v>0.8025882751804002</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8810189346670141</v>
+        <v>0.8972630641514012</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.30152684852281386</v>
+        <v>0.31116589960766594</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.8852483176570063</v>
+        <v>4.065555254703473</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.00652099444563306</v>
+        <v>0.006542627802068927</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.038037895409012264</v>
+        <v>0.06105032696911821</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.24088657813517295</v>
+        <v>0.22484620719066317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7838568593317969</v>
+        <v>0.7492362846218729</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7988144490423443</v>
+        <v>0.7772856783010286</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8747064789438259</v>
+        <v>0.878282575142542</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3061196482711629</v>
+        <v>0.2794268274970395</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.970535882124427</v>
+        <v>3.490057003840264</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.006568338636157244</v>
+        <v>0.006953960228909678</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04084673689697799</v>
+        <v>0.06576056924574358</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.22979860500912075</v>
+        <v>0.1934140741786416</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7868366128466701</v>
+        <v>0.7567134091862705</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8020501578159099</v>
+        <v>0.7834372654554853</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8770267220018455</v>
+        <v>0.8802444059059801</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.31043913521976585</v>
+        <v>0.286710604751798</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.0517847802577025</v>
+        <v>3.6175996165880004</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.00648878307922611</v>
+        <v>0.006728916711227152</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.0403494522712929</v>
+        <v>0.06415112954364456</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.23359684160273803</v>
+        <v>0.1981572864928634</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7888922322280352</v>
+        <v>0.7581741413163986</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8087237119303721</v>
+        <v>0.794701256284308</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8587847908680919</v>
+        <v>0.8998533213742076</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.31962707229269594</v>
+        <v>0.30075093812964776</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.228039555200811</v>
+        <v>3.87095041061162</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.006366932175476659</v>
+        <v>0.006795227625336506</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.032339115737054946</v>
+        <v>0.07135552426962882</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2629650688030699</v>
+        <v>0.19232865870414917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7919759642641331</v>
+        <v>0.7589034184073298</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.809241484344445</v>
+        <v>0.7958829321793734</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8592492652275704</v>
+        <v>0.8993867528049988</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.32035615993774397</v>
+        <v>0.3022795723758776</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.242229929098734</v>
+        <v>3.8991493493272085</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.006266432991516551</v>
+        <v>0.0067069999325378524</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.032154725670205254</v>
+        <v>0.07010715576477312</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2629650688030699</v>
+        <v>0.1998527701032916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7975988160735957</v>
+        <v>0.7425402882398306</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8115479009344898</v>
+        <v>0.7830745153532167</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9059584015341628</v>
+        <v>0.867763242893288</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.32363314177586655</v>
+        <v>0.28627381933893814</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.3063882278773535</v>
+        <v>3.6098779109715307</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.006240970868455507</v>
+        <v>0.007124995101966663</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04666449959689135</v>
+        <v>0.06478866114348074</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.25202892499259805</v>
+        <v>0.1998527701032916</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7940643902084966</v>
+        <v>0.7457229913091521</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8084875417623028</v>
+        <v>0.7859740972912856</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9038363554335931</v>
+        <v>0.8699330968154335</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.31929530762543396</v>
+        <v>0.28979131498935273</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.2215924185926434</v>
+        <v>3.672331653991354</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.006304859085297377</v>
+        <v>0.007047702909619543</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.046391851716505395</v>
+        <v>0.06444238347141454</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.22979860500912075</v>
+        <v>0.1998527701032916</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6626679738874326</v>
+        <v>0.6771926864113567</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7103844742090998</v>
+        <v>0.6586712071097329</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6895144032373071</v>
+        <v>0.686009199541114</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5770037806549424</v>
+        <v>0.6452710381820572</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.485254691689008</v>
+        <v>0.20505940973553086</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0933764894815363</v>
+        <v>0.40382242640458876</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6188383970691839</v>
+        <v>0.7078811753248376</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6636044759083387</v>
+        <v>0.6814032223998332</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6349792370609781</v>
+        <v>0.7120890430007191</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5146472814648259</v>
+        <v>0.5628913783891283</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.993106089620835</v>
+        <v>0.8052893829053277</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2059679042406923</v>
+        <v>1.6447405261025072</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6375201795336036</v>
+        <v>0.703373372939987</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6879430605539011</v>
+        <v>0.6770621293657019</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6635838069229161</v>
+        <v>0.7076053446864163</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5517433007432441</v>
+        <v>0.5473256388518638</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.5591727307545002</v>
+        <v>0.8474511307014182</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.046359830033361</v>
+        <v>1.7293130429356829</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6151748266979812</v>
+        <v>0.32010848198347686</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6595248575443</v>
+        <v>0.46425005248260653</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6301327181312291</v>
+        <v>0.3855508598334194</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5076384049732702</v>
+        <v>0.2986542850483442</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.9770202987361163</v>
+        <v>0.9697201993100805</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2331036160600186</v>
+        <v>0.17138901118201244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6260388352324023</v>
+        <v>0.5863864869447646</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.632640012407647</v>
+        <v>0.6547563518744199</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6103902518617719</v>
+        <v>0.6184441924489803</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5114178013929582</v>
+        <v>0.4740526989634466</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.1891995404059745</v>
+        <v>3.487926408585665</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3256293852600443</v>
+        <v>1.0895258582563432</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5995759032704364</v>
+        <v>0.5395788909007021</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6073550568149871</v>
+        <v>0.611037195701177</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5819967199629136</v>
+        <v>0.5713757428711428</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4863117126539194</v>
+        <v>0.4058583079991455</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9816162389888932</v>
+        <v>3.996167113836719</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2617444561377837</v>
+        <v>1.2013479250795467</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6268492149970974</v>
+        <v>0.5819010310068696</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5535716830853065</v>
+        <v>0.5267634039306233</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5738091116205276</v>
+        <v>0.4229540989291251</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.47969948275302815</v>
+        <v>0.4137451954848132</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.8046725392569897</v>
+        <v>1.455730164814105</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.6442612375317525</v>
+        <v>1.5392533687785204</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.623027439847758</v>
+        <v>0.5446956687709859</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.54930382698398</v>
+        <v>0.5175881371692695</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5692590023551608</v>
+        <v>0.4168222313685768</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4658586834610673</v>
+        <v>0.39367619244970714</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.8468019915741095</v>
+        <v>2.3817554618627828</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7288093921590917</v>
+        <v>1.3452614462957848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5549968109405571</v>
+        <v>0.6393963975797433</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5301213774845819</v>
+        <v>0.6136588971908181</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.42766570064952664</v>
+        <v>0.5906902952936456</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.4035970547633982</v>
+        <v>0.5105601786763418</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.45461509000383</v>
+        <v>2.190111153698735</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5391906974538687</v>
+        <v>1.3257283083105937</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
-        <v>2611.0</v>
+        <v>2609.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5501144272577757</v>
+        <v>0.6166645970969485</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5555137319857312</v>
+        <v>0.5925459586287947</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4594831229876933</v>
+        <v>0.5667211033779023</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.41935252764850045</v>
+        <v>0.4900921271700548</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3806970509383376</v>
+        <v>1.9823687236489076</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3452893735580305</v>
+        <v>1.2619351924491449</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.031022596706242817</v>
+        <v>0.7949405902644692</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.05476828801225584</v>
+        <v>0.20505940973553086</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.0076599004212945234</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3255457679050172</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.46648793565683644</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.11451551129835312</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.031022596706242817</v>
+        <v>0.7949405902644692</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.005361930294906166</v>
+        <v>0.008815638175546186</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.04442742244350823</v>
+        <v>0.0019164430816404753</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2546916890080429</v>
+        <v>0.04446147949405903</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.1876675603217158</v>
+        <v>0.09007282483710234</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4768288012255841</v>
+        <v>0.05979302414718283</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.017617770968977403</v>
+        <v>0.7949405902644692</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.05476828801225584</v>
+        <v>0.0038328861632809506</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.01876675603217158</v>
+        <v>0.005749329244921426</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.30371505170432783</v>
+        <v>0.050594097355308544</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.469934890846419</v>
+        <v>0.04407819087773093</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.13519724243584832</v>
+        <v>0.10080490609428899</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.017617770968977403</v>
+        <v>0.03027980068991951</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.018383761011106857</v>
+        <v>0.9697201993100805</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.059364228265032556</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3071620068939104</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.0689391037916507</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5285331290693221</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.1815396399846802</v>
+        <v>0.03027980068991951</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.0689391037916507</v>
+        <v>0.05481027213491759</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3163538873994638</v>
+        <v>0.007665772326561901</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.24511681348142475</v>
+        <v>0.32579532387888077</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.18805055534278053</v>
+        <v>0.4668455346876198</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.11460329628210042</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.2037533512064343</v>
+        <v>0.03027980068991951</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.06625813864419762</v>
+        <v>0.005366040628593331</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.40214477211796246</v>
+        <v>0.04446147949405903</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.20030639601685177</v>
+        <v>0.25488692985818323</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.1275373420145538</v>
+        <v>0.1878114220007666</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.47719432732847833</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7950976637303715</v>
+        <v>0.4492142583365274</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.008808885484488702</v>
+        <v>0.12763510923725566</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0019149751053236309</v>
+        <v>0.07052510540436949</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.04442742244350823</v>
+        <v>0.22345726331927943</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09000382995021065</v>
+        <v>0.12916826370256804</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.05974722328609728</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7950976637303715</v>
+        <v>0.16864699118436183</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0038299502106472617</v>
+        <v>0.10540436949022614</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.005744925315970892</v>
+        <v>0.07665772326561901</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.050555342780543855</v>
+        <v>0.47412801839785357</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.04404442742244351</v>
+        <v>0.17516289766193943</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.10072769054002298</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4496361547299885</v>
+        <v>0.18167880413951706</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.1275373420145538</v>
+        <v>0.06822537370640092</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.07047108387590961</v>
+        <v>0.31659639708700654</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.22328609728073534</v>
+        <v>0.24530471444998084</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.12906932209881272</v>
+        <v>0.18819471061709467</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.1685178092684795</v>
+        <v>0.20390954388654656</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.10608962083492915</v>
+        <v>0.06554235339210425</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.07659900421294523</v>
+        <v>0.4024530471444998</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.47376484105706623</v>
+        <v>0.20045994633959371</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.17502872462657987</v>
+        <v>0.12763510923725566</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
